--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3102,28 +3102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8393.952370748111</v>
+        <v>8591.571637579984</v>
       </c>
       <c r="AB2" t="n">
-        <v>11484.97594870129</v>
+        <v>11755.36734792742</v>
       </c>
       <c r="AC2" t="n">
-        <v>10388.86596342179</v>
+        <v>10633.45158700248</v>
       </c>
       <c r="AD2" t="n">
-        <v>8393952.370748112</v>
+        <v>8591571.637579983</v>
       </c>
       <c r="AE2" t="n">
-        <v>11484975.94870129</v>
+        <v>11755367.34792742</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.556737843680448e-07</v>
+        <v>9.393941028964014e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.46666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>10388865.96342179</v>
+        <v>10633451.58700248</v>
       </c>
     </row>
     <row r="3">
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2777.513874268031</v>
+        <v>2881.488124113247</v>
       </c>
       <c r="AB3" t="n">
-        <v>3800.317018037765</v>
+        <v>3942.579173696166</v>
       </c>
       <c r="AC3" t="n">
-        <v>3437.620095614532</v>
+        <v>3566.304950803079</v>
       </c>
       <c r="AD3" t="n">
-        <v>2777513.874268032</v>
+        <v>2881488.124113247</v>
       </c>
       <c r="AE3" t="n">
-        <v>3800317.018037765</v>
+        <v>3942579.173696166</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.045991345213673e-06</v>
+        <v>1.768300267200629e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.37222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>3437620.095614532</v>
+        <v>3566304.950803079</v>
       </c>
     </row>
     <row r="4">
@@ -3314,28 +3314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2099.42179847229</v>
+        <v>2193.066815458948</v>
       </c>
       <c r="AB4" t="n">
-        <v>2872.521524622746</v>
+        <v>3000.65076819064</v>
       </c>
       <c r="AC4" t="n">
-        <v>2598.372101922032</v>
+        <v>2714.272870314215</v>
       </c>
       <c r="AD4" t="n">
-        <v>2099421.798472289</v>
+        <v>2193066.815458948</v>
       </c>
       <c r="AE4" t="n">
-        <v>2872521.524622746</v>
+        <v>3000650.76819064</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.227033919747867e-06</v>
+        <v>2.074361722095466e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.51388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>2598372.101922032</v>
+        <v>2714272.870314215</v>
       </c>
     </row>
     <row r="5">
@@ -3420,28 +3420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1819.240953494163</v>
+        <v>1902.386234930217</v>
       </c>
       <c r="AB5" t="n">
-        <v>2489.165731817168</v>
+        <v>2602.928773988912</v>
       </c>
       <c r="AC5" t="n">
-        <v>2251.603247938583</v>
+        <v>2354.508905032888</v>
       </c>
       <c r="AD5" t="n">
-        <v>1819240.953494163</v>
+        <v>1902386.234930217</v>
       </c>
       <c r="AE5" t="n">
-        <v>2489165.731817168</v>
+        <v>2602928.773988912</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.323171757473921e-06</v>
+        <v>2.23688750676565e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.31388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>2251603.247938583</v>
+        <v>2354508.905032889</v>
       </c>
     </row>
     <row r="6">
@@ -3526,28 +3526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1640.887263609131</v>
+        <v>1724.117796391206</v>
       </c>
       <c r="AB6" t="n">
-        <v>2245.134344906994</v>
+        <v>2359.014031731388</v>
       </c>
       <c r="AC6" t="n">
-        <v>2030.861874094914</v>
+        <v>2133.873043439932</v>
       </c>
       <c r="AD6" t="n">
-        <v>1640887.263609131</v>
+        <v>1724117.796391206</v>
       </c>
       <c r="AE6" t="n">
-        <v>2245134.344906994</v>
+        <v>2359014.031731388</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.384880870308703e-06</v>
+        <v>2.341209823784599e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.63055555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>2030861.874094914</v>
+        <v>2133873.043439932</v>
       </c>
     </row>
     <row r="7">
@@ -3632,28 +3632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1524.521956426435</v>
+        <v>1597.33809451248</v>
       </c>
       <c r="AB7" t="n">
-        <v>2085.918197944594</v>
+        <v>2185.548450495212</v>
       </c>
       <c r="AC7" t="n">
-        <v>1886.84109273734</v>
+        <v>1976.962773816464</v>
       </c>
       <c r="AD7" t="n">
-        <v>1524521.956426435</v>
+        <v>1597338.094512481</v>
       </c>
       <c r="AE7" t="n">
-        <v>2085918.197944594</v>
+        <v>2185548.450495212</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.425582625582708e-06</v>
+        <v>2.410018160541778e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.2125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1886841.09273734</v>
+        <v>1976962.773816464</v>
       </c>
     </row>
     <row r="8">
@@ -3738,28 +3738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1434.150034442918</v>
+        <v>1517.295226370421</v>
       </c>
       <c r="AB8" t="n">
-        <v>1962.267347358931</v>
+        <v>2076.030267061127</v>
       </c>
       <c r="AC8" t="n">
-        <v>1774.991305786513</v>
+        <v>1877.896852099592</v>
       </c>
       <c r="AD8" t="n">
-        <v>1434150.034442918</v>
+        <v>1517295.226370421</v>
       </c>
       <c r="AE8" t="n">
-        <v>1962267.347358931</v>
+        <v>2076030.267061127</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.451404169251162e-06</v>
+        <v>2.453670761280204e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.95972222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1774991.305786513</v>
+        <v>1877896.852099592</v>
       </c>
     </row>
     <row r="9">
@@ -3844,28 +3844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1413.590112619803</v>
+        <v>1496.735304547307</v>
       </c>
       <c r="AB9" t="n">
-        <v>1934.136355280811</v>
+        <v>2047.899274983007</v>
       </c>
       <c r="AC9" t="n">
-        <v>1749.545096110233</v>
+        <v>1852.450642423313</v>
       </c>
       <c r="AD9" t="n">
-        <v>1413590.112619804</v>
+        <v>1496735.304547307</v>
       </c>
       <c r="AE9" t="n">
-        <v>1934136.355280811</v>
+        <v>2047899.274983007</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.458114852916411e-06</v>
+        <v>2.465015504974936e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.89583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1749545.096110233</v>
+        <v>1852450.642423313</v>
       </c>
     </row>
     <row r="10">
@@ -3950,28 +3950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1419.945994232583</v>
+        <v>1503.091186160086</v>
       </c>
       <c r="AB10" t="n">
-        <v>1942.832752905122</v>
+        <v>2056.595672607318</v>
       </c>
       <c r="AC10" t="n">
-        <v>1757.411521750751</v>
+        <v>1860.31706806383</v>
       </c>
       <c r="AD10" t="n">
-        <v>1419945.994232583</v>
+        <v>1503091.186160086</v>
       </c>
       <c r="AE10" t="n">
-        <v>1942832.752905122</v>
+        <v>2056595.672607318</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.457968968488905e-06</v>
+        <v>2.464768880112007e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.89722222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1757411.521750751</v>
+        <v>1860317.06806383</v>
       </c>
     </row>
   </sheetData>
@@ -4247,28 +4247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5022.470797402084</v>
+        <v>5173.743974205415</v>
       </c>
       <c r="AB2" t="n">
-        <v>6871.966120779473</v>
+        <v>7078.944754983356</v>
       </c>
       <c r="AC2" t="n">
-        <v>6216.115319077046</v>
+        <v>6403.340202928841</v>
       </c>
       <c r="AD2" t="n">
-        <v>5022470.797402084</v>
+        <v>5173743.974205415</v>
       </c>
       <c r="AE2" t="n">
-        <v>6871966.120779473</v>
+        <v>7078944.754983356</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.319396861723171e-07</v>
+        <v>1.267566566533217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.63888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>6216115.319077047</v>
+        <v>6403340.202928841</v>
       </c>
     </row>
     <row r="3">
@@ -4353,28 +4353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2143.235657149859</v>
+        <v>2234.050767744603</v>
       </c>
       <c r="AB3" t="n">
-        <v>2932.469578996422</v>
+        <v>3056.726819792242</v>
       </c>
       <c r="AC3" t="n">
-        <v>2652.598798123906</v>
+        <v>2764.997102254191</v>
       </c>
       <c r="AD3" t="n">
-        <v>2143235.657149859</v>
+        <v>2234050.767744603</v>
       </c>
       <c r="AE3" t="n">
-        <v>2932469.578996422</v>
+        <v>3056726.819792242</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.184233137607046e-06</v>
+        <v>2.050844298471372e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.7</v>
       </c>
       <c r="AH3" t="n">
-        <v>2652598.798123906</v>
+        <v>2764997.102254191</v>
       </c>
     </row>
     <row r="4">
@@ -4459,28 +4459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1673.762039790191</v>
+        <v>1754.486582541072</v>
       </c>
       <c r="AB4" t="n">
-        <v>2290.115064010687</v>
+        <v>2400.565944717924</v>
       </c>
       <c r="AC4" t="n">
-        <v>2071.549696498186</v>
+        <v>2171.459300169508</v>
       </c>
       <c r="AD4" t="n">
-        <v>1673762.039790191</v>
+        <v>1754486.582541073</v>
       </c>
       <c r="AE4" t="n">
-        <v>2290115.064010687</v>
+        <v>2400565.944717924</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.349485499742858e-06</v>
+        <v>2.337026853183511e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.53194444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>2071549.696498186</v>
+        <v>2171459.300169508</v>
       </c>
     </row>
     <row r="5">
@@ -4565,28 +4565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1455.580952065873</v>
+        <v>1536.220153962183</v>
       </c>
       <c r="AB5" t="n">
-        <v>1991.590074316016</v>
+        <v>2101.924187901055</v>
       </c>
       <c r="AC5" t="n">
-        <v>1801.51551283752</v>
+        <v>1901.319493476904</v>
       </c>
       <c r="AD5" t="n">
-        <v>1455580.952065873</v>
+        <v>1536220.153962183</v>
       </c>
       <c r="AE5" t="n">
-        <v>1991590.074316016</v>
+        <v>2101924.187901055</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.435205446494585e-06</v>
+        <v>2.485475886130081e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.60555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>1801515.51283752</v>
+        <v>1901319.493476904</v>
       </c>
     </row>
     <row r="6">
@@ -4671,28 +4671,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1336.387471786627</v>
+        <v>1406.936195347628</v>
       </c>
       <c r="AB6" t="n">
-        <v>1828.504296152724</v>
+        <v>1925.032172118907</v>
       </c>
       <c r="AC6" t="n">
-        <v>1653.994412449806</v>
+        <v>1741.309803411501</v>
       </c>
       <c r="AD6" t="n">
-        <v>1336387.471786627</v>
+        <v>1406936.195347628</v>
       </c>
       <c r="AE6" t="n">
-        <v>1828504.296152724</v>
+        <v>1925032.172118907</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.481083727854664e-06</v>
+        <v>2.564927481228246e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.15277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1653994.412449806</v>
+        <v>1741309.803411501</v>
       </c>
     </row>
     <row r="7">
@@ -4777,28 +4777,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1312.32533482158</v>
+        <v>1382.87405838258</v>
       </c>
       <c r="AB7" t="n">
-        <v>1795.581418810584</v>
+        <v>1892.109294776767</v>
       </c>
       <c r="AC7" t="n">
-        <v>1624.21364831365</v>
+        <v>1711.529039275345</v>
       </c>
       <c r="AD7" t="n">
-        <v>1312325.33482158</v>
+        <v>1382874.05838258</v>
       </c>
       <c r="AE7" t="n">
-        <v>1795581.418810584</v>
+        <v>1892109.294776767</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.490893228803365e-06</v>
+        <v>2.581915486759104e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.05972222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1624213.64831365</v>
+        <v>1711529.039275345</v>
       </c>
     </row>
     <row r="8">
@@ -4883,28 +4883,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1317.772251140042</v>
+        <v>1388.320974701042</v>
       </c>
       <c r="AB8" t="n">
-        <v>1803.034130018493</v>
+        <v>1899.562005984675</v>
       </c>
       <c r="AC8" t="n">
-        <v>1630.955083223822</v>
+        <v>1718.270474185517</v>
       </c>
       <c r="AD8" t="n">
-        <v>1317772.251140042</v>
+        <v>1388320.974701042</v>
       </c>
       <c r="AE8" t="n">
-        <v>1803034.130018492</v>
+        <v>1899562.005984675</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.490893228803365e-06</v>
+        <v>2.581915486759104e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.05972222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1630955.083223822</v>
+        <v>1718270.474185517</v>
       </c>
     </row>
   </sheetData>
@@ -5180,28 +5180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1527.047214271812</v>
+        <v>1618.030188689823</v>
       </c>
       <c r="AB2" t="n">
-        <v>2089.373367135152</v>
+        <v>2213.86028661942</v>
       </c>
       <c r="AC2" t="n">
-        <v>1889.966505429711</v>
+        <v>2002.572568036889</v>
       </c>
       <c r="AD2" t="n">
-        <v>1527047.214271812</v>
+        <v>1618030.188689823</v>
       </c>
       <c r="AE2" t="n">
-        <v>2089373.367135152</v>
+        <v>2213860.28661942</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.30038171519931e-06</v>
+        <v>2.46060203393369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.98472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1889966.505429711</v>
+        <v>2002572.568036889</v>
       </c>
     </row>
     <row r="3">
@@ -5286,28 +5286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1072.403348601183</v>
+        <v>1145.155681302313</v>
       </c>
       <c r="AB3" t="n">
-        <v>1467.309572652829</v>
+        <v>1566.852523860912</v>
       </c>
       <c r="AC3" t="n">
-        <v>1327.271606420762</v>
+        <v>1417.314318074955</v>
       </c>
       <c r="AD3" t="n">
-        <v>1072403.348601183</v>
+        <v>1145155.681302313</v>
       </c>
       <c r="AE3" t="n">
-        <v>1467309.572652829</v>
+        <v>1566852.523860912</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.539677547535261e-06</v>
+        <v>2.913401242716359e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.19027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1327271.606420762</v>
+        <v>1417314.318074955</v>
       </c>
     </row>
     <row r="4">
@@ -5392,28 +5392,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1077.509948921226</v>
+        <v>1141.317597718784</v>
       </c>
       <c r="AB4" t="n">
-        <v>1474.296648498018</v>
+        <v>1561.601088577631</v>
       </c>
       <c r="AC4" t="n">
-        <v>1333.591845553709</v>
+        <v>1412.564072404674</v>
       </c>
       <c r="AD4" t="n">
-        <v>1077509.948921226</v>
+        <v>1141317.597718784</v>
       </c>
       <c r="AE4" t="n">
-        <v>1474296.648498018</v>
+        <v>1561601.088577631</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.541529943140958e-06</v>
+        <v>2.916906373818829e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.17222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1333591.845553709</v>
+        <v>1412564.072404674</v>
       </c>
     </row>
   </sheetData>
@@ -5689,28 +5689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2381.548284764079</v>
+        <v>2485.925882478205</v>
       </c>
       <c r="AB2" t="n">
-        <v>3258.539429709503</v>
+        <v>3401.353463716597</v>
       </c>
       <c r="AC2" t="n">
-        <v>2947.548999926717</v>
+        <v>3076.733062968925</v>
       </c>
       <c r="AD2" t="n">
-        <v>2381548.284764079</v>
+        <v>2485925.882478205</v>
       </c>
       <c r="AE2" t="n">
-        <v>3258539.429709503</v>
+        <v>3401353.463716597</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.067465523435792e-06</v>
+        <v>1.944690357109725e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.96111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2947548.999926717</v>
+        <v>3076733.062968926</v>
       </c>
     </row>
     <row r="3">
@@ -5795,28 +5795,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1323.49818388036</v>
+        <v>1399.300637911547</v>
       </c>
       <c r="AB3" t="n">
-        <v>1810.868603804119</v>
+        <v>1914.584865577842</v>
       </c>
       <c r="AC3" t="n">
-        <v>1638.041845827101</v>
+        <v>1731.859573143828</v>
       </c>
       <c r="AD3" t="n">
-        <v>1323498.18388036</v>
+        <v>1399300.637911547</v>
       </c>
       <c r="AE3" t="n">
-        <v>1810868.603804119</v>
+        <v>1914584.865577842</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.446700935776248e-06</v>
+        <v>2.635574918026763e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.46666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1638041.845827101</v>
+        <v>1731859.573143828</v>
       </c>
     </row>
     <row r="4">
@@ -5901,28 +5901,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1144.796086640446</v>
+        <v>1220.683792017654</v>
       </c>
       <c r="AB4" t="n">
-        <v>1566.360510580349</v>
+        <v>1670.193417006722</v>
       </c>
       <c r="AC4" t="n">
-        <v>1416.869261851344</v>
+        <v>1510.792501418782</v>
       </c>
       <c r="AD4" t="n">
-        <v>1144796.086640446</v>
+        <v>1220683.792017655</v>
       </c>
       <c r="AE4" t="n">
-        <v>1566360.510580349</v>
+        <v>1670193.417006721</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.534662930312309e-06</v>
+        <v>2.795822568944649e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.57916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1416869.261851344</v>
+        <v>1510792.501418782</v>
       </c>
     </row>
     <row r="5">
@@ -6007,28 +6007,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1147.065078021303</v>
+        <v>1222.952783398512</v>
       </c>
       <c r="AB5" t="n">
-        <v>1569.465044688473</v>
+        <v>1673.297951114845</v>
       </c>
       <c r="AC5" t="n">
-        <v>1419.677503581429</v>
+        <v>1513.600743148868</v>
       </c>
       <c r="AD5" t="n">
-        <v>1147065.078021304</v>
+        <v>1222952.783398512</v>
       </c>
       <c r="AE5" t="n">
-        <v>1569465.044688473</v>
+        <v>1673297.951114845</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.537562776286025e-06</v>
+        <v>2.801105458535349e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.55138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1419677.503581429</v>
+        <v>1513600.743148868</v>
       </c>
     </row>
   </sheetData>
@@ -6304,28 +6304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1084.64453545468</v>
+        <v>1154.980483845198</v>
       </c>
       <c r="AB2" t="n">
-        <v>1484.058504548834</v>
+        <v>1580.295252139784</v>
       </c>
       <c r="AC2" t="n">
-        <v>1342.422043763885</v>
+        <v>1429.474091233879</v>
       </c>
       <c r="AD2" t="n">
-        <v>1084644.53545468</v>
+        <v>1154980.483845198</v>
       </c>
       <c r="AE2" t="n">
-        <v>1484058.504548834</v>
+        <v>1580295.252139784</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.477880957191651e-06</v>
+        <v>2.89617050216007e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1342422.043763885</v>
+        <v>1429474.091233879</v>
       </c>
     </row>
     <row r="3">
@@ -6410,28 +6410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1020.862185964966</v>
+        <v>1099.915353959429</v>
       </c>
       <c r="AB3" t="n">
-        <v>1396.788680098342</v>
+        <v>1504.952712127997</v>
       </c>
       <c r="AC3" t="n">
-        <v>1263.481128874981</v>
+        <v>1361.322137496898</v>
       </c>
       <c r="AD3" t="n">
-        <v>1020862.185964966</v>
+        <v>1099915.353959429</v>
       </c>
       <c r="AE3" t="n">
-        <v>1396788.680098342</v>
+        <v>1504952.712127997</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.520730760092474e-06</v>
+        <v>2.980142309619149e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.97361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1263481.128874981</v>
+        <v>1361322.137496897</v>
       </c>
     </row>
   </sheetData>
@@ -6707,28 +6707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5682.859626336866</v>
+        <v>5835.409972341086</v>
       </c>
       <c r="AB2" t="n">
-        <v>7775.539250827029</v>
+        <v>7984.2653642763</v>
       </c>
       <c r="AC2" t="n">
-        <v>7033.452697765684</v>
+        <v>7222.258283896288</v>
       </c>
       <c r="AD2" t="n">
-        <v>5682859.626336866</v>
+        <v>5835409.972341087</v>
       </c>
       <c r="AE2" t="n">
-        <v>7775539.250827028</v>
+        <v>7984265.3642763</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.855818344437231e-07</v>
+        <v>1.179530662219357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.29861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>7033452.697765684</v>
+        <v>7222258.283896288</v>
       </c>
     </row>
     <row r="3">
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2298.521556096819</v>
+        <v>2390.017663160944</v>
       </c>
       <c r="AB3" t="n">
-        <v>3144.938596666195</v>
+        <v>3270.127606874698</v>
       </c>
       <c r="AC3" t="n">
-        <v>2844.790070949297</v>
+        <v>2958.031217727375</v>
       </c>
       <c r="AD3" t="n">
-        <v>2298521.556096819</v>
+        <v>2390017.663160944</v>
       </c>
       <c r="AE3" t="n">
-        <v>3144938.596666195</v>
+        <v>3270127.606874698</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.147721421797804e-06</v>
+        <v>1.974633137406489e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.1</v>
       </c>
       <c r="AH3" t="n">
-        <v>2844790.070949297</v>
+        <v>2958031.217727375</v>
       </c>
     </row>
     <row r="4">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1778.092779568709</v>
+        <v>1859.498431488837</v>
       </c>
       <c r="AB4" t="n">
-        <v>2432.864984923047</v>
+        <v>2544.247789244065</v>
       </c>
       <c r="AC4" t="n">
-        <v>2200.675765309443</v>
+        <v>2301.42835111281</v>
       </c>
       <c r="AD4" t="n">
-        <v>1778092.779568709</v>
+        <v>1859498.431488837</v>
       </c>
       <c r="AE4" t="n">
-        <v>2432864.984923047</v>
+        <v>2544247.789244065</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.316424805142594e-06</v>
+        <v>2.264884138057326e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.77916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2200675.765309443</v>
+        <v>2301428.35111281</v>
       </c>
     </row>
     <row r="5">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1540.872454065342</v>
+        <v>1622.192765130899</v>
       </c>
       <c r="AB5" t="n">
-        <v>2108.289670147193</v>
+        <v>2219.555707346013</v>
       </c>
       <c r="AC5" t="n">
-        <v>1907.077463031481</v>
+        <v>2007.724425802909</v>
       </c>
       <c r="AD5" t="n">
-        <v>1540872.454065342</v>
+        <v>1622192.765130899</v>
       </c>
       <c r="AE5" t="n">
-        <v>2108289.670147193</v>
+        <v>2219555.707346013</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.407058005769316e-06</v>
+        <v>2.420816856492084e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.7625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1907077.463031481</v>
+        <v>2007724.425802909</v>
       </c>
     </row>
     <row r="6">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1388.315729877</v>
+        <v>1459.460423961092</v>
       </c>
       <c r="AB6" t="n">
-        <v>1899.554829785035</v>
+        <v>1996.898138913276</v>
       </c>
       <c r="AC6" t="n">
-        <v>1718.263982872299</v>
+        <v>1806.316983199533</v>
       </c>
       <c r="AD6" t="n">
-        <v>1388315.729877</v>
+        <v>1459460.423961092</v>
       </c>
       <c r="AE6" t="n">
-        <v>1899554.829785035</v>
+        <v>1996898.138913276</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.463142907147239e-06</v>
+        <v>2.517309875325473e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.19722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1718263.982872299</v>
+        <v>1806316.983199533</v>
       </c>
     </row>
     <row r="7">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1341.000494006858</v>
+        <v>1412.14518809095</v>
       </c>
       <c r="AB7" t="n">
-        <v>1834.816036666621</v>
+        <v>1932.159345794862</v>
       </c>
       <c r="AC7" t="n">
-        <v>1659.703769307639</v>
+        <v>1747.756769634873</v>
       </c>
       <c r="AD7" t="n">
-        <v>1341000.494006858</v>
+        <v>1412145.18809095</v>
       </c>
       <c r="AE7" t="n">
-        <v>1834816.036666621</v>
+        <v>1932159.345794862</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.480940515851166e-06</v>
+        <v>2.54793032663527e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.02638888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1659703.769307639</v>
+        <v>1747756.769634873</v>
       </c>
     </row>
     <row r="8">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1343.334473593156</v>
+        <v>1414.479167677248</v>
       </c>
       <c r="AB8" t="n">
-        <v>1838.009490504506</v>
+        <v>1935.352799632747</v>
       </c>
       <c r="AC8" t="n">
-        <v>1662.592444393277</v>
+        <v>1750.645444720511</v>
       </c>
       <c r="AD8" t="n">
-        <v>1343334.473593156</v>
+        <v>1414479.167677248</v>
       </c>
       <c r="AE8" t="n">
-        <v>1838009.490504507</v>
+        <v>1935352.799632747</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.481688314536205e-06</v>
+        <v>2.549216900219714e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.01944444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1662592.444393277</v>
+        <v>1750645.444720511</v>
       </c>
     </row>
   </sheetData>
@@ -7640,28 +7640,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1007.623800378601</v>
+        <v>1085.095738870321</v>
       </c>
       <c r="AB2" t="n">
-        <v>1378.675336902724</v>
+        <v>1484.675860967803</v>
       </c>
       <c r="AC2" t="n">
-        <v>1247.096497731715</v>
+        <v>1342.980480552694</v>
       </c>
       <c r="AD2" t="n">
-        <v>1007623.800378601</v>
+        <v>1085095.738870321</v>
       </c>
       <c r="AE2" t="n">
-        <v>1378675.336902724</v>
+        <v>1484675.860967803</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.484693567263757e-06</v>
+        <v>2.976306365695663e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.74305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1247096.497731715</v>
+        <v>1342980.480552694</v>
       </c>
     </row>
     <row r="3">
@@ -7746,28 +7746,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1012.414602874326</v>
+        <v>1089.886541366046</v>
       </c>
       <c r="AB3" t="n">
-        <v>1385.230324232665</v>
+        <v>1491.230848297744</v>
       </c>
       <c r="AC3" t="n">
-        <v>1253.025886270869</v>
+        <v>1348.909869091848</v>
       </c>
       <c r="AD3" t="n">
-        <v>1012414.602874326</v>
+        <v>1089886.541366046</v>
       </c>
       <c r="AE3" t="n">
-        <v>1385230.324232665</v>
+        <v>1491230.848297744</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.489347217986947e-06</v>
+        <v>2.985635354907005e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.69166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1253025.886270869</v>
+        <v>1348909.869091848</v>
       </c>
     </row>
   </sheetData>
@@ -8043,28 +8043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3486.691314861946</v>
+        <v>3604.377084447705</v>
       </c>
       <c r="AB2" t="n">
-        <v>4770.644878958989</v>
+        <v>4931.66774083596</v>
       </c>
       <c r="AC2" t="n">
-        <v>4315.341227353103</v>
+        <v>4460.996293289537</v>
       </c>
       <c r="AD2" t="n">
-        <v>3486691.314861946</v>
+        <v>3604377.084447705</v>
       </c>
       <c r="AE2" t="n">
-        <v>4770644.878958989</v>
+        <v>4931667.74083596</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.853579286358792e-07</v>
+        <v>1.568034679817096e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.39166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4315341.227353103</v>
+        <v>4460996.293289537</v>
       </c>
     </row>
     <row r="3">
@@ -8149,28 +8149,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1725.539351570204</v>
+        <v>1813.782276414467</v>
       </c>
       <c r="AB3" t="n">
-        <v>2360.959066241881</v>
+        <v>2481.696929016891</v>
       </c>
       <c r="AC3" t="n">
-        <v>2135.632446586616</v>
+        <v>2244.847257195034</v>
       </c>
       <c r="AD3" t="n">
-        <v>1725539.351570204</v>
+        <v>1813782.276414467</v>
       </c>
       <c r="AE3" t="n">
-        <v>2360959.066241881</v>
+        <v>2481696.929016891</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.303780511347356e-06</v>
+        <v>2.30909216548408e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2135632.446586616</v>
+        <v>2244847.257195034</v>
       </c>
     </row>
     <row r="4">
@@ -8255,28 +8255,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1356.62825364881</v>
+        <v>1435.056926748758</v>
       </c>
       <c r="AB4" t="n">
-        <v>1856.198626856837</v>
+        <v>1963.508197421046</v>
       </c>
       <c r="AC4" t="n">
-        <v>1679.045635100755</v>
+        <v>1776.113730860244</v>
       </c>
       <c r="AD4" t="n">
-        <v>1356628.25364881</v>
+        <v>1435056.926748758</v>
       </c>
       <c r="AE4" t="n">
-        <v>1856198.626856837</v>
+        <v>1963508.197421046</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.456937792644571e-06</v>
+        <v>2.580345091304213e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.82361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1679045.635100755</v>
+        <v>1776113.730860244</v>
       </c>
     </row>
     <row r="5">
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1232.327636856479</v>
+        <v>1300.942147720663</v>
       </c>
       <c r="AB5" t="n">
-        <v>1686.125039205381</v>
+        <v>1780.006440028338</v>
       </c>
       <c r="AC5" t="n">
-        <v>1525.203631954975</v>
+        <v>1610.125123646762</v>
       </c>
       <c r="AD5" t="n">
-        <v>1232327.636856479</v>
+        <v>1300942.147720663</v>
       </c>
       <c r="AE5" t="n">
-        <v>1686125.039205381</v>
+        <v>1780006.440028338</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.512447589013206e-06</v>
+        <v>2.678657065433946e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.27777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1525203.631954974</v>
+        <v>1610125.123646762</v>
       </c>
     </row>
     <row r="6">
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1229.222783426666</v>
+        <v>1297.83729429085</v>
       </c>
       <c r="AB6" t="n">
-        <v>1681.876841766245</v>
+        <v>1775.758242589202</v>
       </c>
       <c r="AC6" t="n">
-        <v>1521.360876517047</v>
+        <v>1606.282368208834</v>
       </c>
       <c r="AD6" t="n">
-        <v>1229222.783426666</v>
+        <v>1297837.29429085</v>
       </c>
       <c r="AE6" t="n">
-        <v>1681876.841766245</v>
+        <v>1775758.242589202</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.516179340029585e-06</v>
+        <v>2.685266273778802e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.24305555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1521360.876517047</v>
+        <v>1606282.368208834</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4447.76061928364</v>
+        <v>4587.620710796607</v>
       </c>
       <c r="AB2" t="n">
-        <v>6085.622300654139</v>
+        <v>6276.985048053959</v>
       </c>
       <c r="AC2" t="n">
-        <v>5504.819049504022</v>
+        <v>5677.918404871298</v>
       </c>
       <c r="AD2" t="n">
-        <v>4447760.61928364</v>
+        <v>4587620.710796607</v>
       </c>
       <c r="AE2" t="n">
-        <v>6085622.300654138</v>
+        <v>6276985.048053959</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.807878823010116e-07</v>
+        <v>1.361625888956309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.09722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>5504819.049504022</v>
+        <v>5677918.404871298</v>
       </c>
     </row>
     <row r="3">
@@ -8870,28 +8870,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2003.349486255906</v>
+        <v>2093.198619299745</v>
       </c>
       <c r="AB3" t="n">
-        <v>2741.071148637008</v>
+        <v>2864.006696331583</v>
       </c>
       <c r="AC3" t="n">
-        <v>2479.467165328611</v>
+        <v>2590.669916892341</v>
       </c>
       <c r="AD3" t="n">
-        <v>2003349.486255907</v>
+        <v>2093198.619299745</v>
       </c>
       <c r="AE3" t="n">
-        <v>2741071.148637008</v>
+        <v>2864006.696331582</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.222294864331906e-06</v>
+        <v>2.131575513579799e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.31111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>2479467.165328611</v>
+        <v>2590669.91689234</v>
       </c>
     </row>
     <row r="4">
@@ -8976,28 +8976,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1574.963019428429</v>
+        <v>1654.809960778442</v>
       </c>
       <c r="AB4" t="n">
-        <v>2154.933885646568</v>
+        <v>2264.183993400095</v>
       </c>
       <c r="AC4" t="n">
-        <v>1949.270020069163</v>
+        <v>2048.093450872183</v>
       </c>
       <c r="AD4" t="n">
-        <v>1574963.019428429</v>
+        <v>1654809.960778442</v>
       </c>
       <c r="AE4" t="n">
-        <v>2154933.885646568</v>
+        <v>2264183.993400095</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.382413511024269e-06</v>
+        <v>2.410808451978449e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.30555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1949270.020069163</v>
+        <v>2048093.450872183</v>
       </c>
     </row>
     <row r="5">
@@ -9082,28 +9082,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1358.296192759838</v>
+        <v>1428.226283270597</v>
       </c>
       <c r="AB5" t="n">
-        <v>1858.480774732825</v>
+        <v>1954.162209667504</v>
       </c>
       <c r="AC5" t="n">
-        <v>1681.109977986473</v>
+        <v>1767.659711060724</v>
       </c>
       <c r="AD5" t="n">
-        <v>1358296.192759838</v>
+        <v>1428226.283270597</v>
       </c>
       <c r="AE5" t="n">
-        <v>1858480.774732826</v>
+        <v>1954162.209667504</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.467119474450486e-06</v>
+        <v>2.55852825573644e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.42222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1681109.977986474</v>
+        <v>1767659.711060724</v>
       </c>
     </row>
     <row r="6">
@@ -9188,28 +9188,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1287.160754894906</v>
+        <v>1357.090845405665</v>
       </c>
       <c r="AB6" t="n">
-        <v>1761.150130371996</v>
+        <v>1856.831565306674</v>
       </c>
       <c r="AC6" t="n">
-        <v>1593.068433719024</v>
+        <v>1679.618166793274</v>
       </c>
       <c r="AD6" t="n">
-        <v>1287160.754894906</v>
+        <v>1357090.845405665</v>
       </c>
       <c r="AE6" t="n">
-        <v>1761150.130371996</v>
+        <v>1856831.565306674</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.497132198901862e-06</v>
+        <v>2.61086782649242e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.13333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1593068.433719024</v>
+        <v>1679618.166793274</v>
       </c>
     </row>
     <row r="7">
@@ -9294,28 +9294,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1284.924239377528</v>
+        <v>1354.854329888287</v>
       </c>
       <c r="AB7" t="n">
-        <v>1758.090031173018</v>
+        <v>1853.771466107697</v>
       </c>
       <c r="AC7" t="n">
-        <v>1590.300386092721</v>
+        <v>1676.85011916697</v>
       </c>
       <c r="AD7" t="n">
-        <v>1284924.239377528</v>
+        <v>1354854.329888287</v>
       </c>
       <c r="AE7" t="n">
-        <v>1758090.031173018</v>
+        <v>1853771.466107697</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.499874478293358e-06</v>
+        <v>2.615650122297535e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.10833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1590300.386092721</v>
+        <v>1676850.11916697</v>
       </c>
     </row>
   </sheetData>
@@ -9591,28 +9591,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7342.010358044944</v>
+        <v>7517.661337204362</v>
       </c>
       <c r="AB2" t="n">
-        <v>10045.66247851448</v>
+        <v>10285.9958973747</v>
       </c>
       <c r="AC2" t="n">
-        <v>9086.91855074052</v>
+        <v>9304.314885414782</v>
       </c>
       <c r="AD2" t="n">
-        <v>7342010.358044944</v>
+        <v>7517661.337204362</v>
       </c>
       <c r="AE2" t="n">
-        <v>10045662.47851448</v>
+        <v>10285995.8973747</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.974667212771204e-07</v>
+        <v>1.015653828240387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.18333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>9086918.55074052</v>
+        <v>9304314.885414783</v>
       </c>
     </row>
     <row r="3">
@@ -9697,28 +9697,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2608.353897867113</v>
+        <v>2711.642810251035</v>
       </c>
       <c r="AB3" t="n">
-        <v>3568.864875514555</v>
+        <v>3710.189322223459</v>
       </c>
       <c r="AC3" t="n">
-        <v>3228.257420728623</v>
+        <v>3356.09406059373</v>
       </c>
       <c r="AD3" t="n">
-        <v>2608353.897867113</v>
+        <v>2711642.810251035</v>
       </c>
       <c r="AE3" t="n">
-        <v>3568864.875514555</v>
+        <v>3710189.322223459</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.077734088171306e-06</v>
+        <v>1.832076521578585e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.95</v>
       </c>
       <c r="AH3" t="n">
-        <v>3228257.420728623</v>
+        <v>3356094.06059373</v>
       </c>
     </row>
     <row r="4">
@@ -9803,28 +9803,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1996.71445655403</v>
+        <v>2079.328607798804</v>
       </c>
       <c r="AB4" t="n">
-        <v>2731.992808282049</v>
+        <v>2845.029134694273</v>
       </c>
       <c r="AC4" t="n">
-        <v>2471.255249035599</v>
+        <v>2573.503547102521</v>
       </c>
       <c r="AD4" t="n">
-        <v>1996714.45655403</v>
+        <v>2079328.607798804</v>
       </c>
       <c r="AE4" t="n">
-        <v>2731992.808282049</v>
+        <v>2845029.134694273</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.254930100757801e-06</v>
+        <v>2.133297999065582e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.275</v>
       </c>
       <c r="AH4" t="n">
-        <v>2471255.249035599</v>
+        <v>2573503.547102521</v>
       </c>
     </row>
     <row r="5">
@@ -9909,28 +9909,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1731.618716489514</v>
+        <v>1803.98078326501</v>
       </c>
       <c r="AB5" t="n">
-        <v>2369.277121527133</v>
+        <v>2468.286093678446</v>
       </c>
       <c r="AC5" t="n">
-        <v>2143.156638349908</v>
+        <v>2232.716333159065</v>
       </c>
       <c r="AD5" t="n">
-        <v>1731618.716489514</v>
+        <v>1803980.78326501</v>
       </c>
       <c r="AE5" t="n">
-        <v>2369277.121527133</v>
+        <v>2468286.093678446</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.349483657681549e-06</v>
+        <v>2.294032779168601e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.13472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>2143156.638349908</v>
+        <v>2232716.333159065</v>
       </c>
     </row>
     <row r="6">
@@ -10015,28 +10015,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1562.815886278696</v>
+        <v>1635.092612199621</v>
       </c>
       <c r="AB6" t="n">
-        <v>2138.313642177409</v>
+        <v>2237.205847206525</v>
       </c>
       <c r="AC6" t="n">
-        <v>1934.235989310043</v>
+        <v>2023.690061087261</v>
       </c>
       <c r="AD6" t="n">
-        <v>1562815.886278696</v>
+        <v>1635092.612199621</v>
       </c>
       <c r="AE6" t="n">
-        <v>2138313.642177409</v>
+        <v>2237205.847206525</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.409039163986554e-06</v>
+        <v>2.395273192763816e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.49444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1934235.989310043</v>
+        <v>2023690.061087261</v>
       </c>
     </row>
     <row r="7">
@@ -10121,28 +10121,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1443.39177378208</v>
+        <v>1515.668499703004</v>
       </c>
       <c r="AB7" t="n">
-        <v>1974.912302839537</v>
+        <v>2073.804507868652</v>
       </c>
       <c r="AC7" t="n">
-        <v>1786.429444463357</v>
+        <v>1875.883516240574</v>
       </c>
       <c r="AD7" t="n">
-        <v>1443391.77378208</v>
+        <v>1515668.499703004</v>
       </c>
       <c r="AE7" t="n">
-        <v>1974912.302839537</v>
+        <v>2073804.507868652</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.449331037387964e-06</v>
+        <v>2.463766707146751e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.09166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1786429.444463356</v>
+        <v>1875883.516240574</v>
       </c>
     </row>
     <row r="8">
@@ -10227,28 +10227,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1390.317671495392</v>
+        <v>1472.846392377043</v>
       </c>
       <c r="AB8" t="n">
-        <v>1902.293974626749</v>
+        <v>2015.213411447228</v>
       </c>
       <c r="AC8" t="n">
-        <v>1720.741707574733</v>
+        <v>1822.88427182849</v>
       </c>
       <c r="AD8" t="n">
-        <v>1390317.671495392</v>
+        <v>1472846.392377043</v>
       </c>
       <c r="AE8" t="n">
-        <v>1902293.974626749</v>
+        <v>2015213.411447228</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.462859695610336e-06</v>
+        <v>2.486764529494306e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.96111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1720741.707574734</v>
+        <v>1822884.27182849</v>
       </c>
     </row>
     <row r="9">
@@ -10333,28 +10333,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1391.109200612384</v>
+        <v>1473.637921494036</v>
       </c>
       <c r="AB9" t="n">
-        <v>1903.376979684419</v>
+        <v>2016.296416504898</v>
       </c>
       <c r="AC9" t="n">
-        <v>1721.721352149707</v>
+        <v>1823.863916403463</v>
       </c>
       <c r="AD9" t="n">
-        <v>1391109.200612385</v>
+        <v>1473637.921494036</v>
       </c>
       <c r="AE9" t="n">
-        <v>1903376.979684419</v>
+        <v>2016296.416504898</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.465947758900225e-06</v>
+        <v>2.492014032421465e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.93194444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>1721721.352149707</v>
+        <v>1823863.916403464</v>
       </c>
     </row>
   </sheetData>
@@ -10630,28 +10630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2722.123713464057</v>
+        <v>2827.728072090731</v>
       </c>
       <c r="AB2" t="n">
-        <v>3724.529756384333</v>
+        <v>3869.022298792847</v>
       </c>
       <c r="AC2" t="n">
-        <v>3369.065863845216</v>
+        <v>3499.768240802813</v>
       </c>
       <c r="AD2" t="n">
-        <v>2722123.713464057</v>
+        <v>2827728.072090731</v>
       </c>
       <c r="AE2" t="n">
-        <v>3724529.756384333</v>
+        <v>3869022.298792847</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.002561804858476e-06</v>
+        <v>1.807856180327654e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.03888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>3369065.863845216</v>
+        <v>3499768.240802813</v>
       </c>
     </row>
     <row r="3">
@@ -10736,28 +10736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1452.049852966537</v>
+        <v>1528.915023855769</v>
       </c>
       <c r="AB3" t="n">
-        <v>1986.758668747207</v>
+        <v>2091.928986609865</v>
       </c>
       <c r="AC3" t="n">
-        <v>1797.145209835277</v>
+        <v>1892.278220168592</v>
       </c>
       <c r="AD3" t="n">
-        <v>1452049.852966537</v>
+        <v>1528915.023855769</v>
       </c>
       <c r="AE3" t="n">
-        <v>1986758.668747207</v>
+        <v>2091928.986609865</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.396936719844855e-06</v>
+        <v>2.519007476905288e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.81666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1797145.209835277</v>
+        <v>1892278.220168591</v>
       </c>
     </row>
     <row r="4">
@@ -10842,28 +10842,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1186.670111736582</v>
+        <v>1263.449941771242</v>
       </c>
       <c r="AB4" t="n">
-        <v>1623.65439906849</v>
+        <v>1728.70794980895</v>
       </c>
       <c r="AC4" t="n">
-        <v>1468.695102034653</v>
+        <v>1563.722489336029</v>
       </c>
       <c r="AD4" t="n">
-        <v>1186670.111736582</v>
+        <v>1263449.941771242</v>
       </c>
       <c r="AE4" t="n">
-        <v>1623654.399068489</v>
+        <v>1728707.94980895</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.520864940407336e-06</v>
+        <v>2.742479384946425e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.52777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1468695.102034653</v>
+        <v>1563722.489336029</v>
       </c>
     </row>
     <row r="5">
@@ -10948,28 +10948,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1172.351521177648</v>
+        <v>1239.523294359705</v>
       </c>
       <c r="AB5" t="n">
-        <v>1604.063071774123</v>
+        <v>1695.970455251299</v>
       </c>
       <c r="AC5" t="n">
-        <v>1450.973543520661</v>
+        <v>1534.109415311599</v>
       </c>
       <c r="AD5" t="n">
-        <v>1172351.521177648</v>
+        <v>1239523.294359705</v>
       </c>
       <c r="AE5" t="n">
-        <v>1604063.071774123</v>
+        <v>1695970.455251299</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.530569204148428e-06</v>
+        <v>2.759978468888029e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.43611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1450973.543520661</v>
+        <v>1534109.415311599</v>
       </c>
     </row>
   </sheetData>
@@ -11245,28 +11245,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1794.883319303825</v>
+        <v>1887.315183444016</v>
       </c>
       <c r="AB2" t="n">
-        <v>2455.838542134968</v>
+        <v>2582.307896457626</v>
       </c>
       <c r="AC2" t="n">
-        <v>2221.456758464648</v>
+        <v>2335.856055111605</v>
       </c>
       <c r="AD2" t="n">
-        <v>1794883.319303825</v>
+        <v>1887315.183444016</v>
       </c>
       <c r="AE2" t="n">
-        <v>2455838.542134968</v>
+        <v>2582307.896457626</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.214526553979918e-06</v>
+        <v>2.265918335133573e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.95</v>
       </c>
       <c r="AH2" t="n">
-        <v>2221456.758464648</v>
+        <v>2335856.055111605</v>
       </c>
     </row>
     <row r="3">
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1114.04951006948</v>
+        <v>1178.811643074365</v>
       </c>
       <c r="AB3" t="n">
-        <v>1524.291688072728</v>
+        <v>1612.902095553675</v>
       </c>
       <c r="AC3" t="n">
-        <v>1378.815428719886</v>
+        <v>1458.96898327634</v>
       </c>
       <c r="AD3" t="n">
-        <v>1114049.51006948</v>
+        <v>1178811.643074365</v>
       </c>
       <c r="AE3" t="n">
-        <v>1524291.688072728</v>
+        <v>1612902.095553675</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.531373978077285e-06</v>
+        <v>2.857054350521128e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.03055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1378815.428719886</v>
+        <v>1458968.98327634</v>
       </c>
     </row>
     <row r="4">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1089.306787458001</v>
+        <v>1163.235210599239</v>
       </c>
       <c r="AB4" t="n">
-        <v>1490.437603423819</v>
+        <v>1591.589733457506</v>
       </c>
       <c r="AC4" t="n">
-        <v>1348.192330395364</v>
+        <v>1439.690643106541</v>
       </c>
       <c r="AD4" t="n">
-        <v>1089306.787458001</v>
+        <v>1163235.210599239</v>
       </c>
       <c r="AE4" t="n">
-        <v>1490437.603423819</v>
+        <v>1591589.733457506</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.543636901394861e-06</v>
+        <v>2.879933045677341e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.91111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1348192.330395364</v>
+        <v>1439690.643106541</v>
       </c>
     </row>
   </sheetData>
@@ -20527,28 +20527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1286.606572109328</v>
+        <v>1358.341242789821</v>
       </c>
       <c r="AB2" t="n">
-        <v>1760.391873035949</v>
+        <v>1858.542414171315</v>
       </c>
       <c r="AC2" t="n">
-        <v>1592.382543398909</v>
+        <v>1681.165734643466</v>
       </c>
       <c r="AD2" t="n">
-        <v>1286606.572109328</v>
+        <v>1358341.242789821</v>
       </c>
       <c r="AE2" t="n">
-        <v>1760391.873035949</v>
+        <v>1858542.414171315</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.395054403866549e-06</v>
+        <v>2.682741352285686e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.06666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1592382.543398909</v>
+        <v>1681165.734643466</v>
       </c>
     </row>
     <row r="3">
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1043.693799203893</v>
+        <v>1115.428380375834</v>
       </c>
       <c r="AB3" t="n">
-        <v>1428.027900591528</v>
+        <v>1526.178319257346</v>
       </c>
       <c r="AC3" t="n">
-        <v>1291.738922008818</v>
+        <v>1380.522002472148</v>
       </c>
       <c r="AD3" t="n">
-        <v>1043693.799203893</v>
+        <v>1115428.380375834</v>
       </c>
       <c r="AE3" t="n">
-        <v>1428027.900591528</v>
+        <v>1526178.319257346</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.535451252817975e-06</v>
+        <v>2.952729699240955e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.50694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1291738.922008818</v>
+        <v>1380522.002472149</v>
       </c>
     </row>
   </sheetData>
@@ -20930,28 +20930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>998.4386102636322</v>
+        <v>1082.288596055515</v>
       </c>
       <c r="AB2" t="n">
-        <v>1366.107754565435</v>
+        <v>1480.835004326186</v>
       </c>
       <c r="AC2" t="n">
-        <v>1235.728347813985</v>
+        <v>1339.506189878276</v>
       </c>
       <c r="AD2" t="n">
-        <v>998438.6102636321</v>
+        <v>1082288.596055515</v>
       </c>
       <c r="AE2" t="n">
-        <v>1366107.754565435</v>
+        <v>1480835.004326186</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.422986566080989e-06</v>
+        <v>2.935051125506946e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.95833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1235728.347813985</v>
+        <v>1339506.189878276</v>
       </c>
     </row>
   </sheetData>
@@ -21227,28 +21227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3933.931903122835</v>
+        <v>4062.764840735272</v>
       </c>
       <c r="AB2" t="n">
-        <v>5382.579182679792</v>
+        <v>5558.854091629209</v>
       </c>
       <c r="AC2" t="n">
-        <v>4868.873379981959</v>
+        <v>5028.324859024626</v>
       </c>
       <c r="AD2" t="n">
-        <v>3933931.903122835</v>
+        <v>4062764.840735272</v>
       </c>
       <c r="AE2" t="n">
-        <v>5382579.182679792</v>
+        <v>5558854.091629209</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.318197867626472e-07</v>
+        <v>1.461474551901577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.69166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4868873.379981959</v>
+        <v>5028324.859024626</v>
       </c>
     </row>
     <row r="3">
@@ -21333,28 +21333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1856.82329965676</v>
+        <v>1945.929992533875</v>
       </c>
       <c r="AB3" t="n">
-        <v>2540.587555852929</v>
+        <v>2662.507264157244</v>
       </c>
       <c r="AC3" t="n">
-        <v>2298.117445259355</v>
+        <v>2408.401307718491</v>
       </c>
       <c r="AD3" t="n">
-        <v>1856823.29965676</v>
+        <v>1945929.992533875</v>
       </c>
       <c r="AE3" t="n">
-        <v>2540587.555852929</v>
+        <v>2662507.264157244</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.262655044427355e-06</v>
+        <v>2.21843510412585e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.925</v>
       </c>
       <c r="AH3" t="n">
-        <v>2298117.445259355</v>
+        <v>2408401.307718491</v>
       </c>
     </row>
     <row r="4">
@@ -21439,28 +21439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1472.263925313052</v>
+        <v>1541.635596612915</v>
       </c>
       <c r="AB4" t="n">
-        <v>2014.416454313642</v>
+        <v>2109.333835448255</v>
       </c>
       <c r="AC4" t="n">
-        <v>1822.163375165198</v>
+        <v>1908.021974661705</v>
       </c>
       <c r="AD4" t="n">
-        <v>1472263.925313052</v>
+        <v>1541635.596612915</v>
       </c>
       <c r="AE4" t="n">
-        <v>2014416.454313642</v>
+        <v>2109333.835448255</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.418371216126171e-06</v>
+        <v>2.492022275144051e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.06666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1822163.375165198</v>
+        <v>1908021.974661705</v>
       </c>
     </row>
     <row r="5">
@@ -21545,28 +21545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1285.270204461537</v>
+        <v>1354.556534906828</v>
       </c>
       <c r="AB5" t="n">
-        <v>1758.563395863861</v>
+        <v>1853.364009876276</v>
       </c>
       <c r="AC5" t="n">
-        <v>1590.728573521841</v>
+        <v>1676.481549986409</v>
       </c>
       <c r="AD5" t="n">
-        <v>1285270.204461537</v>
+        <v>1354556.534906828</v>
       </c>
       <c r="AE5" t="n">
-        <v>1758563.395863861</v>
+        <v>1853364.009876276</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.493767386217495e-06</v>
+        <v>2.624490371783298e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.30694444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>1590728.573521841</v>
+        <v>1676481.549986409</v>
       </c>
     </row>
     <row r="6">
@@ -21651,28 +21651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1254.659478179117</v>
+        <v>1323.945808624408</v>
       </c>
       <c r="AB6" t="n">
-        <v>1716.68044971432</v>
+        <v>1811.481063726736</v>
       </c>
       <c r="AC6" t="n">
-        <v>1552.842876969729</v>
+        <v>1638.595853434296</v>
       </c>
       <c r="AD6" t="n">
-        <v>1254659.478179117</v>
+        <v>1323945.808624408</v>
       </c>
       <c r="AE6" t="n">
-        <v>1716680.44971432</v>
+        <v>1811481.063726736</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.507154053152077e-06</v>
+        <v>2.648010217513125e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.18055555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1552842.876969729</v>
+        <v>1638595.853434297</v>
       </c>
     </row>
     <row r="7">
@@ -21757,28 +21757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1261.53095786836</v>
+        <v>1330.817288313652</v>
       </c>
       <c r="AB7" t="n">
-        <v>1726.082311373432</v>
+        <v>1820.882925385848</v>
       </c>
       <c r="AC7" t="n">
-        <v>1561.347438147691</v>
+        <v>1647.100414612259</v>
       </c>
       <c r="AD7" t="n">
-        <v>1261530.95786836</v>
+        <v>1330817.288313652</v>
       </c>
       <c r="AE7" t="n">
-        <v>1726082.311373432</v>
+        <v>1820882.925385848</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.507154053152077e-06</v>
+        <v>2.648010217513125e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.18055555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1561347.438147691</v>
+        <v>1647100.414612259</v>
       </c>
     </row>
   </sheetData>
@@ -22054,28 +22054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6450.884810796959</v>
+        <v>6614.926067809588</v>
       </c>
       <c r="AB2" t="n">
-        <v>8826.385191085194</v>
+        <v>9050.833675919383</v>
       </c>
       <c r="AC2" t="n">
-        <v>7984.007376357109</v>
+        <v>8187.03481281414</v>
       </c>
       <c r="AD2" t="n">
-        <v>6450884.810796958</v>
+        <v>6614926.067809588</v>
       </c>
       <c r="AE2" t="n">
-        <v>8826385.191085193</v>
+        <v>9050833.675919382</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.406909728053438e-07</v>
+        <v>1.095510163360339e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.14444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>7984007.376357109</v>
+        <v>8187034.812814141</v>
       </c>
     </row>
     <row r="3">
@@ -22160,28 +22160,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2447.827524692648</v>
+        <v>2550.321251562232</v>
       </c>
       <c r="AB3" t="n">
-        <v>3349.225609813473</v>
+        <v>3489.462048620549</v>
       </c>
       <c r="AC3" t="n">
-        <v>3029.580218280415</v>
+        <v>3156.432688190817</v>
       </c>
       <c r="AD3" t="n">
-        <v>2447827.524692648</v>
+        <v>2550321.251562232</v>
       </c>
       <c r="AE3" t="n">
-        <v>3349225.609813473</v>
+        <v>3489462.048620549</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.112794665795905e-06</v>
+        <v>1.902754866007717e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.50555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>3029580.218280415</v>
+        <v>3156432.688190817</v>
       </c>
     </row>
     <row r="4">
@@ -22266,28 +22266,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1889.489807693276</v>
+        <v>1971.46781052658</v>
       </c>
       <c r="AB4" t="n">
-        <v>2585.283313293114</v>
+        <v>2697.449233383878</v>
       </c>
       <c r="AC4" t="n">
-        <v>2338.547502340338</v>
+        <v>2440.008464443497</v>
       </c>
       <c r="AD4" t="n">
-        <v>1889489.807693276</v>
+        <v>1971467.81052658</v>
       </c>
       <c r="AE4" t="n">
-        <v>2585283.313293114</v>
+        <v>2697449.233383878</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.28538533747964e-06</v>
+        <v>2.197865680669007e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.02083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2338547.502340338</v>
+        <v>2440008.464443497</v>
       </c>
     </row>
     <row r="5">
@@ -22372,28 +22372,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1626.564071588807</v>
+        <v>1708.541984913559</v>
       </c>
       <c r="AB5" t="n">
-        <v>2225.536721690151</v>
+        <v>2337.702519311367</v>
       </c>
       <c r="AC5" t="n">
-        <v>2013.13462053245</v>
+        <v>2114.595471854382</v>
       </c>
       <c r="AD5" t="n">
-        <v>1626564.071588807</v>
+        <v>1708541.984913559</v>
       </c>
       <c r="AE5" t="n">
-        <v>2225536.721690151</v>
+        <v>2337702.519311367</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.378649540648944e-06</v>
+        <v>2.357337074502299e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.9375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2013134.62053245</v>
+        <v>2114595.471854382</v>
       </c>
     </row>
     <row r="6">
@@ -22478,28 +22478,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1478.361940452845</v>
+        <v>1550.082036513733</v>
       </c>
       <c r="AB6" t="n">
-        <v>2022.760027653348</v>
+        <v>2120.890627151185</v>
       </c>
       <c r="AC6" t="n">
-        <v>1829.710649575641</v>
+        <v>1918.475802384566</v>
       </c>
       <c r="AD6" t="n">
-        <v>1478361.940452845</v>
+        <v>1550082.036513733</v>
       </c>
       <c r="AE6" t="n">
-        <v>2022760.027653348</v>
+        <v>2120890.627151185</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.435141848133053e-06</v>
+        <v>2.453932624662051e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.35</v>
       </c>
       <c r="AH6" t="n">
-        <v>1829710.649575641</v>
+        <v>1918475.802384566</v>
       </c>
     </row>
     <row r="7">
@@ -22584,28 +22584,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1386.24556222437</v>
+        <v>1457.965658285258</v>
       </c>
       <c r="AB7" t="n">
-        <v>1896.722335073356</v>
+        <v>1994.852934571192</v>
       </c>
       <c r="AC7" t="n">
-        <v>1715.70181748047</v>
+        <v>1804.466970289395</v>
       </c>
       <c r="AD7" t="n">
-        <v>1386245.56222437</v>
+        <v>1457965.658285258</v>
       </c>
       <c r="AE7" t="n">
-        <v>1896722.335073356</v>
+        <v>1994852.934571192</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.466724161765902e-06</v>
+        <v>2.507934861365535e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.04027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1715701.81748047</v>
+        <v>1804466.970289395</v>
       </c>
     </row>
     <row r="8">
@@ -22690,28 +22690,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1359.433762535493</v>
+        <v>1441.326335005674</v>
       </c>
       <c r="AB8" t="n">
-        <v>1860.037247885913</v>
+        <v>1972.08627838493</v>
       </c>
       <c r="AC8" t="n">
-        <v>1682.517903526354</v>
+        <v>1783.873131816347</v>
       </c>
       <c r="AD8" t="n">
-        <v>1359433.762535493</v>
+        <v>1441326.335005674</v>
       </c>
       <c r="AE8" t="n">
-        <v>1860037.247885913</v>
+        <v>1972086.27838493</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.474286124185034e-06</v>
+        <v>2.520864974379045e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.96805555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1682517.903526354</v>
+        <v>1783873.131816347</v>
       </c>
     </row>
     <row r="9">
@@ -22796,28 +22796,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1365.691363496671</v>
+        <v>1447.583935966852</v>
       </c>
       <c r="AB9" t="n">
-        <v>1868.599173586867</v>
+        <v>1980.648204085885</v>
       </c>
       <c r="AC9" t="n">
-        <v>1690.262691055147</v>
+        <v>1791.617919345141</v>
       </c>
       <c r="AD9" t="n">
-        <v>1365691.363496671</v>
+        <v>1447583.935966852</v>
       </c>
       <c r="AE9" t="n">
-        <v>1868599.173586867</v>
+        <v>1980648.204085885</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.47413785041211e-06</v>
+        <v>2.520611442751329e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.96944444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>1690262.691055147</v>
+        <v>1791617.91934514</v>
       </c>
     </row>
   </sheetData>
@@ -23093,28 +23093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1028.802950049879</v>
+        <v>1118.234822329527</v>
       </c>
       <c r="AB2" t="n">
-        <v>1407.653583841106</v>
+        <v>1530.01821694987</v>
       </c>
       <c r="AC2" t="n">
-        <v>1273.309101453524</v>
+        <v>1383.995425718228</v>
       </c>
       <c r="AD2" t="n">
-        <v>1028802.950049879</v>
+        <v>1118234.822329527</v>
       </c>
       <c r="AE2" t="n">
-        <v>1407653.583841106</v>
+        <v>1530018.21694987</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.283363682946072e-06</v>
+        <v>2.750839477624328e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.61805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1273309.101453524</v>
+        <v>1383995.425718228</v>
       </c>
     </row>
   </sheetData>
@@ -23390,28 +23390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2078.363790002803</v>
+        <v>2181.353792019534</v>
       </c>
       <c r="AB2" t="n">
-        <v>2843.709028421029</v>
+        <v>2984.624492778536</v>
       </c>
       <c r="AC2" t="n">
-        <v>2572.309429919213</v>
+        <v>2699.776120134537</v>
       </c>
       <c r="AD2" t="n">
-        <v>2078363.790002803</v>
+        <v>2181353.792019533</v>
       </c>
       <c r="AE2" t="n">
-        <v>2843709.028421029</v>
+        <v>2984624.492778536</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.137382721562148e-06</v>
+        <v>2.095550931071267e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.94027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2572309.429919213</v>
+        <v>2699776.120134537</v>
       </c>
     </row>
     <row r="3">
@@ -23496,28 +23496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1203.367567304294</v>
+        <v>1269.015364638401</v>
       </c>
       <c r="AB3" t="n">
-        <v>1646.500594415983</v>
+        <v>1736.322806904925</v>
       </c>
       <c r="AC3" t="n">
-        <v>1489.360888563019</v>
+        <v>1570.610595158283</v>
       </c>
       <c r="AD3" t="n">
-        <v>1203367.567304294</v>
+        <v>1269015.364638401</v>
       </c>
       <c r="AE3" t="n">
-        <v>1646500.594415983</v>
+        <v>1736322.806904925</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.496152260581824e-06</v>
+        <v>2.75655960236539e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.15972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1489360.888563019</v>
+        <v>1570610.595158283</v>
       </c>
     </row>
     <row r="4">
@@ -23602,28 +23602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1117.093708377681</v>
+        <v>1192.034319323745</v>
       </c>
       <c r="AB4" t="n">
-        <v>1528.456894498559</v>
+        <v>1630.993944541382</v>
       </c>
       <c r="AC4" t="n">
-        <v>1382.58311369034</v>
+        <v>1475.33417158873</v>
       </c>
       <c r="AD4" t="n">
-        <v>1117093.708377681</v>
+        <v>1192034.319323745</v>
       </c>
       <c r="AE4" t="n">
-        <v>1528456.894498559</v>
+        <v>1630993.944541382</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.540243191640227e-06</v>
+        <v>2.837794168250422e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.725</v>
       </c>
       <c r="AH4" t="n">
-        <v>1382583.11369034</v>
+        <v>1475334.17158873</v>
       </c>
     </row>
     <row r="5">
@@ -23708,28 +23708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1122.998732562195</v>
+        <v>1197.939343508258</v>
       </c>
       <c r="AB5" t="n">
-        <v>1536.536409099092</v>
+        <v>1639.073459141915</v>
       </c>
       <c r="AC5" t="n">
-        <v>1389.891530757068</v>
+        <v>1482.642588655458</v>
       </c>
       <c r="AD5" t="n">
-        <v>1122998.732562195</v>
+        <v>1197939.343508258</v>
       </c>
       <c r="AE5" t="n">
-        <v>1536536.409099092</v>
+        <v>1639073.459141915</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.541549589597513e-06</v>
+        <v>2.840201118350719e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.7125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1389891.530757068</v>
+        <v>1482642.588655458</v>
       </c>
     </row>
   </sheetData>
@@ -24005,28 +24005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3086.618706122599</v>
+        <v>3203.013284812835</v>
       </c>
       <c r="AB2" t="n">
-        <v>4223.247885723958</v>
+        <v>4382.504083254352</v>
       </c>
       <c r="AC2" t="n">
-        <v>3820.187034875938</v>
+        <v>3964.244044431503</v>
       </c>
       <c r="AD2" t="n">
-        <v>3086618.706122599</v>
+        <v>3203013.284812835</v>
       </c>
       <c r="AE2" t="n">
-        <v>4223247.885723958</v>
+        <v>4382504.083254352</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.41763683843819e-07</v>
+        <v>1.682392092892628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.18472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>3820187.034875938</v>
+        <v>3964244.044431502</v>
       </c>
     </row>
     <row r="3">
@@ -24111,28 +24111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1592.757708576506</v>
+        <v>1670.382571157705</v>
       </c>
       <c r="AB3" t="n">
-        <v>2179.281364385246</v>
+        <v>2285.491125936085</v>
       </c>
       <c r="AC3" t="n">
-        <v>1971.293809608923</v>
+        <v>2067.367060583686</v>
       </c>
       <c r="AD3" t="n">
-        <v>1592757.708576506</v>
+        <v>1670382.571157705</v>
       </c>
       <c r="AE3" t="n">
-        <v>2179281.364385246</v>
+        <v>2285491.125936085</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.348813129164628e-06</v>
+        <v>2.409556221189626e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.18888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1971293.809608923</v>
+        <v>2067367.060583686</v>
       </c>
     </row>
     <row r="4">
@@ -24217,28 +24217,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1266.812970945497</v>
+        <v>1344.437744018145</v>
       </c>
       <c r="AB4" t="n">
-        <v>1733.309394691542</v>
+        <v>1839.519033772832</v>
       </c>
       <c r="AC4" t="n">
-        <v>1567.884778777195</v>
+        <v>1663.957918970732</v>
       </c>
       <c r="AD4" t="n">
-        <v>1266812.970945497</v>
+        <v>1344437.744018145</v>
       </c>
       <c r="AE4" t="n">
-        <v>1733309.394691542</v>
+        <v>1839519.033772832</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.490785183673972e-06</v>
+        <v>2.663178935694141e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.64722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1567884.778777195</v>
+        <v>1663957.918970732</v>
       </c>
     </row>
     <row r="5">
@@ -24323,28 +24323,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1199.271305448214</v>
+        <v>1267.18240378851</v>
       </c>
       <c r="AB5" t="n">
-        <v>1640.895908230176</v>
+        <v>1733.814869005579</v>
       </c>
       <c r="AC5" t="n">
-        <v>1484.291105760559</v>
+        <v>1568.342011332138</v>
       </c>
       <c r="AD5" t="n">
-        <v>1199271.305448214</v>
+        <v>1267182.40378851</v>
       </c>
       <c r="AE5" t="n">
-        <v>1640895.908230176</v>
+        <v>1733814.869005579</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.522858604626249e-06</v>
+        <v>2.72047576156227e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.33888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1484291.105760559</v>
+        <v>1568342.011332138</v>
       </c>
     </row>
     <row r="6">
@@ -24429,28 +24429,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1206.734476387091</v>
+        <v>1274.645574727386</v>
       </c>
       <c r="AB6" t="n">
-        <v>1651.107347960611</v>
+        <v>1744.026308736014</v>
       </c>
       <c r="AC6" t="n">
-        <v>1493.527980014966</v>
+        <v>1577.578885586546</v>
       </c>
       <c r="AD6" t="n">
-        <v>1206734.476387091</v>
+        <v>1274645.574727386</v>
       </c>
       <c r="AE6" t="n">
-        <v>1651107.347960611</v>
+        <v>1744026.308736014</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.522701381974522e-06</v>
+        <v>2.720194894768799e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.34027777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1493527.980014967</v>
+        <v>1577578.885586546</v>
       </c>
     </row>
   </sheetData>
